--- a/02-lab/output/excel/deformed_simplex_method_1_1.xlsx
+++ b/02-lab/output/excel/deformed_simplex_method_1_1.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -361,6 +361,39 @@
         <v>-0.0046287878574447338</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.31321845026989964</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.32081427931253648</v>
+      </c>
+      <c r="C28" s="0">
+        <v>-0.0045967754223132616</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.31209067422019865</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.32844251853513751</v>
+      </c>
+      <c r="C29" s="0">
+        <v>-0.0046058413287692127</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.32026659637766808</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.32026659637766808</v>
+      </c>
+      <c r="C30" s="0">
+        <v>-0.0046088449302042582</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/02-lab/output/excel/deformed_simplex_method_1_1.xlsx
+++ b/02-lab/output/excel/deformed_simplex_method_1_1.xlsx
@@ -1,23 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,7 +56,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -38,30 +65,171 @@
     </border>
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18A303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369A3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A33E03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8E03A3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="C99C00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="C9211E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000EE"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551A8B"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -361,39 +529,13 @@
         <v>-0.0046287878574447338</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.31321845026989964</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.32081427931253648</v>
-      </c>
-      <c r="C28" s="0">
-        <v>-0.0045967754223132616</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.31209067422019865</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.32844251853513751</v>
-      </c>
-      <c r="C29" s="0">
-        <v>-0.0046058413287692127</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.32026659637766808</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.32026659637766808</v>
-      </c>
-      <c r="C30" s="0">
-        <v>-0.0046088449302042582</v>
-      </c>
-    </row>
   </sheetData>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51181102362205" footer="0.51181102362205"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>